--- a/data/long_bre/P18_5-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_5-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,77</t>
+          <t>-10,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,01%</t>
+          <t>12,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>-60,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>31,49%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67,24%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,77; -1,46</t>
+          <t>-19,33; -2,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 20,96</t>
+          <t>-3,54; 25,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 13,38</t>
+          <t>-13,91; 11,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -6,24</t>
+          <t>-2,32; 27,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 78,54</t>
+          <t>-82,76; -10,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 56,11</t>
+          <t>-8,01; 104,81</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-35,81; 47,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 268,52</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>-22,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>-9,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-39,4%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 15,92</t>
+          <t>-9,4; 16,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 14,9</t>
+          <t>-19,15; 9,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 19,77</t>
+          <t>-7,95; 18,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 57,08</t>
+          <t>-40,11; -5,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 52,91</t>
+          <t>-22,99; 57,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 75,64</t>
+          <t>-39,25; 32,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-17,13; 61,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-57,98; -12,1</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,52%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>-24,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-14,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44,27%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 20,3</t>
+          <t>-6,43; 20,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 3,43</t>
+          <t>-18,57; 4,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 4,69</t>
+          <t>-16,65; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 50,44</t>
+          <t>-5,7; 24,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 17,61</t>
+          <t>-11,28; 50,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 19,91</t>
+          <t>-55,1; 25,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-44,02; 34,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; 178,28</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-28,09%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 25,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 3,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 51,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 116,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,38; 13,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,94</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-32,45%</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-16,64%</t>
+          <t>-27,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>34,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-26,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>59,58%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,65; -1,06</t>
+          <t>-12,59; 4,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 8,26</t>
+          <t>-5,27; 24,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 12,72</t>
+          <t>-20,29; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-54,27; -2,98</t>
+          <t>0,23; 28,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 22,31</t>
+          <t>-62,86; 47,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 38,79</t>
+          <t>-14,63; 110,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-48,9; 12,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 210,21</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,22</t>
+          <t>-15,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>-32,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-19,65%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 32,64</t>
+          <t>-31,16; -0,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 7,04</t>
+          <t>-18,42; 11,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 18,82</t>
+          <t>-11,64; 13,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 107,54</t>
+          <t>-31,9; 8,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,12; 40,51</t>
+          <t>-55,04; -2,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 101,52</t>
+          <t>-34,64; 31,79</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-25,2; 43,01</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-48,68; 20,78</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>106,02%</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>-22,78%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-11,65%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 19,89</t>
+          <t>5,89; 32,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 14,28</t>
+          <t>-25,64; 6,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 10,58</t>
+          <t>-11,18; 19,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,88; 263,67</t>
+          <t>-24,12; 10,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 45,11</t>
+          <t>12,22; 110,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 48,82</t>
+          <t>-67,04; 37,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-32,41; 102,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-61,54; 60,29</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 3,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 8,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>76,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-18,69%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 11,63</t>
+          <t>1,9; 16,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 11,21</t>
+          <t>-8,76; 14,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 12,36</t>
+          <t>-7,54; 10,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 27,6</t>
+          <t>-17,46; 4,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 73,99</t>
+          <t>12,32; 210,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 59,23</t>
+          <t>-18,24; 44,04</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-23,07; 45,56</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-42,13; 13,9</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>-18,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-15,68%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-11,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 6,31</t>
+          <t>-17,38; 3,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 5,29</t>
+          <t>-17,16; 4,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 5,99</t>
+          <t>-14,75; 4,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 47,5</t>
+          <t>-8,82; 13,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 14,46</t>
+          <t>-41,14; 13,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 25,87</t>
+          <t>-36,92; 14,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-27,95; 10,87</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-18,52; 41,73</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 11,14</t>
+          <t>-13,09; 9,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 9,1</t>
+          <t>-7,23; 10,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 13,84</t>
+          <t>-6,87; 11,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 41,14</t>
+          <t>-8,37; 14,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 26,91</t>
+          <t>-22,05; 20,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 37,75</t>
+          <t>-27,41; 64,01</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 54,45</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-26,42; 75,87</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 8,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 13,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 5,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 18,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 94,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 22,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-13,28%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 9,36</t>
+          <t>-7,76; 5,48</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 10,04</t>
+          <t>-14,17; 5,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 8,71</t>
+          <t>-8,48; 7,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 68,26</t>
+          <t>-18,22; 6,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 29,95</t>
+          <t>-37,63; 42,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 33,48</t>
+          <t>-30,45; 15,46</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-26,49; 33,9</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-46,18; 27,47</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 16,25</t>
+          <t>-5,6; 11,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 13,1</t>
+          <t>-10,39; 8,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 7,68</t>
+          <t>-4,36; 13,23</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 61,03</t>
+          <t>-5,75; 17,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 43,85</t>
+          <t>-15,83; 41,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 20,4</t>
+          <t>-23,13; 25,31</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 35,2</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 49,28</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>28,57%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-12,71%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-4,92%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 6,15</t>
+          <t>-9,64; 7,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 10,39</t>
+          <t>-2,97; 12,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 11,84</t>
+          <t>-12,85; 4,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 15,31</t>
+          <t>-11,3; 8,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 57,04</t>
+          <t>-17,8; 17,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 51,57</t>
+          <t>-13,51; 90,01</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-36,22; 19,01</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-36,11; 39,95</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 12,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 23,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-34,25; 88,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 116,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 36,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 7,98</t>
+          <t>-8,56; 8,03</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 2,23</t>
+          <t>-14,82; 8,48</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 22,46</t>
+          <t>-8,96; 8,83</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 28,79</t>
+          <t>-7,01; 16,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 5,75</t>
+          <t>-37,32; 61,14</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 71,45</t>
+          <t>-33,28; 23,07</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-26,11; 33,71</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; 85,84</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-25,23%</t>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-5,96%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 16,9</t>
+          <t>-4,79; 17,52</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 16,95</t>
+          <t>-8,36; 14,84</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 2,25</t>
+          <t>-12,6; 7,93</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 45,8</t>
+          <t>-11,28; 14,81</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 117,04</t>
+          <t>-12,35; 63,82</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 9,24</t>
+          <t>-20,73; 47,8</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-26,22; 20,83</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-24,95; 43,3</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-11,11%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-18,51%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,3</t>
+          <t>-17,63; 6,89</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,29</t>
+          <t>-8,49; 11,05</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,38</t>
+          <t>-5,74; 11,2</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 29,7</t>
+          <t>-18,34; 5,48</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 28,49</t>
+          <t>-33,25; 15,32</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 8,3</t>
+          <t>-32,3; 58,59</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 49,27</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-44,6; 20,12</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 18,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>31,04%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-4,05%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,2</t>
+          <t>-11,32; 7,6</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,58</t>
+          <t>-2,63; 21,04</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,46</t>
+          <t>-12,87; 10,33</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 18,7</t>
+          <t>-5,06; 23,74</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 22,73</t>
+          <t>-44,72; 50,23</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 13,36</t>
+          <t>-7,9; 94,61</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-33,27; 42,83</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-14,71; 115,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-12,88</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>8,19</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-9,11</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-10,16%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-26,01%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-21,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-17,96; 9,02</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-27,27; 0,49</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 19,24</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-23,74; 7,06</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-41,85; 33,6</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-46,52; 2,04</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 61,36</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 21,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-6,92</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>-22,54%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 18,64</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 15,3</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 3,71</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 12,68</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 51,61</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-29,34; 94,91</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-47,49; 18,95</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-43,3; 64,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-5,06%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 2,97</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 9,42</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 2,23</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 9,78</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-22,43; 20,88</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 28,41</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 7,95</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 41,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-4,92</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-7,41%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-10,74%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 2,15</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 0,47</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 6,57</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-11,34; 1,59</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 6,38</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 1,27</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 16,8</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; 3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 8,25</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 4,87</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 4,04</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 5,93</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 18,4</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 24,48</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; 15,96</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-16,1; 25,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
